--- a/data/pca/factorExposure/factorExposure_2018-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.05139252175603517</v>
+        <v>-0.03980094178593723</v>
       </c>
       <c r="C2">
-        <v>0.06292039267525079</v>
+        <v>0.002204351415026162</v>
       </c>
       <c r="D2">
-        <v>0.04750183710852283</v>
+        <v>0.01323473876947311</v>
       </c>
       <c r="E2">
-        <v>0.05861659664340395</v>
+        <v>0.01568992584172459</v>
       </c>
       <c r="F2">
-        <v>0.1475601358522091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03779226292475214</v>
+      </c>
+      <c r="G2">
+        <v>0.09121238505772655</v>
+      </c>
+      <c r="H2">
+        <v>-0.02738022321555567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.154387747291947</v>
+        <v>-0.09411239286304834</v>
       </c>
       <c r="C3">
-        <v>0.02325438249267783</v>
+        <v>-0.04152867154106483</v>
       </c>
       <c r="D3">
-        <v>0.06635869858432397</v>
+        <v>0.03791013060677265</v>
       </c>
       <c r="E3">
-        <v>0.1087580151156479</v>
+        <v>0.01132891617244696</v>
       </c>
       <c r="F3">
-        <v>0.3798012524346678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01191694462387576</v>
+      </c>
+      <c r="G3">
+        <v>0.2984783422095558</v>
+      </c>
+      <c r="H3">
+        <v>-0.06072918553289355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05742550998941339</v>
+        <v>-0.049858793961068</v>
       </c>
       <c r="C4">
-        <v>0.03555571309419444</v>
+        <v>-0.008549593525922078</v>
       </c>
       <c r="D4">
-        <v>0.02148069559758482</v>
+        <v>0.03580165090405982</v>
       </c>
       <c r="E4">
-        <v>0.08060791500457849</v>
+        <v>-0.01763882505902149</v>
       </c>
       <c r="F4">
-        <v>0.05743737537340731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06428518351265453</v>
+      </c>
+      <c r="G4">
+        <v>0.04145433688167704</v>
+      </c>
+      <c r="H4">
+        <v>-0.03249116367509031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008825651176760268</v>
+        <v>-0.03146948038127104</v>
       </c>
       <c r="C6">
-        <v>0.001681433268723758</v>
+        <v>-0.004935275502581042</v>
       </c>
       <c r="D6">
-        <v>0.009425928943082163</v>
+        <v>0.03052459379342241</v>
       </c>
       <c r="E6">
-        <v>0.001595004639794072</v>
+        <v>-0.004049236061584634</v>
       </c>
       <c r="F6">
-        <v>0.008659756123903262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03202475247724832</v>
+      </c>
+      <c r="G6">
+        <v>0.001430449453488664</v>
+      </c>
+      <c r="H6">
+        <v>-0.05150343713223345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03091010976409503</v>
+        <v>-0.02466426545088849</v>
       </c>
       <c r="C7">
-        <v>0.01786934059699563</v>
+        <v>-0.004735422486164624</v>
       </c>
       <c r="D7">
-        <v>0.03674071312740591</v>
+        <v>0.02001235236470521</v>
       </c>
       <c r="E7">
-        <v>0.03727662440901586</v>
+        <v>-0.0349555720399943</v>
       </c>
       <c r="F7">
-        <v>0.06452312559202447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02691780250356044</v>
+      </c>
+      <c r="G7">
+        <v>0.03581321042232494</v>
+      </c>
+      <c r="H7">
+        <v>-0.02237288859192724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01514899128230396</v>
+        <v>-0.005128172651734245</v>
       </c>
       <c r="C8">
-        <v>0.01002526110469516</v>
+        <v>-0.00347327231519558</v>
       </c>
       <c r="D8">
-        <v>0.0145363661113699</v>
+        <v>0.02197252411783318</v>
       </c>
       <c r="E8">
-        <v>0.07719249961687988</v>
+        <v>-0.01157094809235537</v>
       </c>
       <c r="F8">
-        <v>0.09196203100205765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02990478089179906</v>
+      </c>
+      <c r="G8">
+        <v>0.05559660858030603</v>
+      </c>
+      <c r="H8">
+        <v>-0.01406142787964331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04673142564292802</v>
+        <v>-0.03965376396386931</v>
       </c>
       <c r="C9">
-        <v>0.02945528319525207</v>
+        <v>-0.01023723228305019</v>
       </c>
       <c r="D9">
-        <v>0.006051367232097084</v>
+        <v>0.030948534531854</v>
       </c>
       <c r="E9">
-        <v>0.08749450182389627</v>
+        <v>-0.01736828479381458</v>
       </c>
       <c r="F9">
-        <v>0.06615856770016375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04373109215096029</v>
+      </c>
+      <c r="G9">
+        <v>0.06181380886339158</v>
+      </c>
+      <c r="H9">
+        <v>-0.03735376852452777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04442399472972445</v>
+        <v>-0.06574753225228085</v>
       </c>
       <c r="C10">
-        <v>0.05050217906017262</v>
+        <v>-0.03427148244827507</v>
       </c>
       <c r="D10">
-        <v>-0.05510840227460147</v>
+        <v>-0.1587978726173157</v>
       </c>
       <c r="E10">
-        <v>-0.1320566649355831</v>
+        <v>0.0161545063736728</v>
       </c>
       <c r="F10">
-        <v>0.07883829748590876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07997912767619832</v>
+      </c>
+      <c r="G10">
+        <v>0.04603371450365742</v>
+      </c>
+      <c r="H10">
+        <v>-0.01290319621623147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03584866137216926</v>
+        <v>-0.02413984675560134</v>
       </c>
       <c r="C11">
-        <v>0.01116554571328161</v>
+        <v>-0.01602908415759962</v>
       </c>
       <c r="D11">
-        <v>0.02304892878112129</v>
+        <v>0.03383371945281884</v>
       </c>
       <c r="E11">
-        <v>0.03688178893875838</v>
+        <v>0.004702058659978073</v>
       </c>
       <c r="F11">
-        <v>0.03169425243257069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02590057579327049</v>
+      </c>
+      <c r="G11">
+        <v>0.03147412564569968</v>
+      </c>
+      <c r="H11">
+        <v>-0.03103086821290404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0428130450869505</v>
+        <v>-0.03294315768528037</v>
       </c>
       <c r="C12">
-        <v>0.01107488101701279</v>
+        <v>-0.01605990873475634</v>
       </c>
       <c r="D12">
-        <v>0.01493237248531299</v>
+        <v>0.03366453505165448</v>
       </c>
       <c r="E12">
-        <v>0.04920482627934053</v>
+        <v>-0.005608255756444388</v>
       </c>
       <c r="F12">
-        <v>0.01745923340774227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0275318272539419</v>
+      </c>
+      <c r="G12">
+        <v>0.005273954262672033</v>
+      </c>
+      <c r="H12">
+        <v>-0.01620031917703171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02895840866528129</v>
+        <v>-0.03133632882124325</v>
       </c>
       <c r="C13">
-        <v>0.02217530521557063</v>
+        <v>0.005206551685847689</v>
       </c>
       <c r="D13">
-        <v>0.04114014853246889</v>
+        <v>0.006539473817182414</v>
       </c>
       <c r="E13">
-        <v>0.02754398967409484</v>
+        <v>0.01623233480183394</v>
       </c>
       <c r="F13">
-        <v>0.09321790968491395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02359929389367364</v>
+      </c>
+      <c r="G13">
+        <v>0.06691717856994034</v>
+      </c>
+      <c r="H13">
+        <v>-0.03216768287314279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0170752744102063</v>
+        <v>-0.01858219220518951</v>
       </c>
       <c r="C14">
-        <v>0.02279824353226729</v>
+        <v>-0.005956821030925393</v>
       </c>
       <c r="D14">
-        <v>0.01566050585361858</v>
+        <v>0.003715167017336891</v>
       </c>
       <c r="E14">
-        <v>0.04505663597793411</v>
+        <v>-0.007068701146315143</v>
       </c>
       <c r="F14">
-        <v>0.06085471053874637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03085184488623978</v>
+      </c>
+      <c r="G14">
+        <v>0.04309506035163803</v>
+      </c>
+      <c r="H14">
+        <v>0.01645415394469363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02806730380988877</v>
+        <v>-0.02459589056079636</v>
       </c>
       <c r="C16">
-        <v>0.01172182289281469</v>
+        <v>-0.0161630378994575</v>
       </c>
       <c r="D16">
-        <v>0.02054636734422122</v>
+        <v>0.03201921290652973</v>
       </c>
       <c r="E16">
-        <v>0.0348731952092369</v>
+        <v>-4.978034658712353e-05</v>
       </c>
       <c r="F16">
-        <v>0.03172273984363049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02611603320962422</v>
+      </c>
+      <c r="G16">
+        <v>0.02335005411753989</v>
+      </c>
+      <c r="H16">
+        <v>-0.02340881407000564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04151190700161964</v>
+        <v>-0.03359494304688748</v>
       </c>
       <c r="C19">
-        <v>0.0132040634596399</v>
+        <v>-0.00833819983976313</v>
       </c>
       <c r="D19">
-        <v>0.03494150470241879</v>
+        <v>0.01732853155331373</v>
       </c>
       <c r="E19">
-        <v>0.04401007700416194</v>
+        <v>0.004264311946142127</v>
       </c>
       <c r="F19">
-        <v>0.09769635371533891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03660217988716644</v>
+      </c>
+      <c r="G19">
+        <v>0.06805403649252426</v>
+      </c>
+      <c r="H19">
+        <v>-0.04844123748176914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005157451428270977</v>
+        <v>-0.01192447346158773</v>
       </c>
       <c r="C20">
-        <v>0.01778963242400232</v>
+        <v>0.003389357601632789</v>
       </c>
       <c r="D20">
-        <v>0.02240993810537512</v>
+        <v>0.01361896421267036</v>
       </c>
       <c r="E20">
-        <v>0.05463912353469651</v>
+        <v>-0.002136654520955832</v>
       </c>
       <c r="F20">
-        <v>0.0649754641351417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02262527361174651</v>
+      </c>
+      <c r="G20">
+        <v>0.05386083130291332</v>
+      </c>
+      <c r="H20">
+        <v>0.007094509347772583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002709109283653604</v>
+        <v>-0.02312379131146804</v>
       </c>
       <c r="C21">
-        <v>0.0001826800496760887</v>
+        <v>0.0009051768835468326</v>
       </c>
       <c r="D21">
-        <v>0.02028323691437109</v>
+        <v>0.001489070293030924</v>
       </c>
       <c r="E21">
-        <v>0.03659799056963112</v>
+        <v>-0.01056488319865521</v>
       </c>
       <c r="F21">
-        <v>0.08721906642347839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01049077853520998</v>
+      </c>
+      <c r="G21">
+        <v>0.05854084486447365</v>
+      </c>
+      <c r="H21">
+        <v>-0.0172573328333264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03099826439110771</v>
+        <v>-0.02490185537374727</v>
       </c>
       <c r="C24">
-        <v>0.01008975626586877</v>
+        <v>-0.01110620955949768</v>
       </c>
       <c r="D24">
-        <v>0.0179274534135314</v>
+        <v>0.03145666190353034</v>
       </c>
       <c r="E24">
-        <v>0.03435400453984015</v>
+        <v>-0.0001973187860971291</v>
       </c>
       <c r="F24">
-        <v>0.03570804556483244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02246902825066889</v>
+      </c>
+      <c r="G24">
+        <v>0.02551099766458063</v>
+      </c>
+      <c r="H24">
+        <v>-0.03078467675306546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03254802489689418</v>
+        <v>-0.03471064877148754</v>
       </c>
       <c r="C25">
-        <v>0.01063732225471601</v>
+        <v>-0.01136234786310552</v>
       </c>
       <c r="D25">
-        <v>0.01574187186079803</v>
+        <v>0.02481815128932206</v>
       </c>
       <c r="E25">
-        <v>0.03900032212248877</v>
+        <v>-0.0008292293057391404</v>
       </c>
       <c r="F25">
-        <v>0.03637795483959858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0278119535846161</v>
+      </c>
+      <c r="G25">
+        <v>0.03084125997401878</v>
+      </c>
+      <c r="H25">
+        <v>-0.03397786887829565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02122676235325961</v>
+        <v>-0.0225080370687243</v>
       </c>
       <c r="C26">
-        <v>0.0001409806284946033</v>
+        <v>0.0130605301022979</v>
       </c>
       <c r="D26">
-        <v>0.04524304647472213</v>
+        <v>0.01194400853544457</v>
       </c>
       <c r="E26">
-        <v>0.04144989457012725</v>
+        <v>0.006240982349980332</v>
       </c>
       <c r="F26">
-        <v>0.05652621478364849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00866559383577524</v>
+      </c>
+      <c r="G26">
+        <v>0.04015087240882498</v>
+      </c>
+      <c r="H26">
+        <v>-0.004904490309893906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07976606385157185</v>
+        <v>-0.034904591643402</v>
       </c>
       <c r="C27">
-        <v>0.05306975450038456</v>
+        <v>-0.02304398139866221</v>
       </c>
       <c r="D27">
-        <v>0.01000504556471542</v>
+        <v>0.006804968505066492</v>
       </c>
       <c r="E27">
-        <v>0.05873372548526535</v>
+        <v>-0.002963463600036299</v>
       </c>
       <c r="F27">
-        <v>0.06080618544375074</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03079650638415324</v>
+      </c>
+      <c r="G27">
+        <v>0.03113822121824553</v>
+      </c>
+      <c r="H27">
+        <v>-0.002229889355985826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06228684340368017</v>
+        <v>-0.1027695437536648</v>
       </c>
       <c r="C28">
-        <v>0.06244555036049188</v>
+        <v>-0.03888673116917728</v>
       </c>
       <c r="D28">
-        <v>-0.09383185954698006</v>
+        <v>-0.2330288666225778</v>
       </c>
       <c r="E28">
-        <v>-0.1955903616288652</v>
+        <v>0.01684589261629988</v>
       </c>
       <c r="F28">
-        <v>0.08474298414442637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1144867409234254</v>
+      </c>
+      <c r="G28">
+        <v>0.02964702662485143</v>
+      </c>
+      <c r="H28">
+        <v>0.002346857408822885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02370027251498528</v>
+        <v>-0.02250311082489843</v>
       </c>
       <c r="C29">
-        <v>0.02024277165610247</v>
+        <v>-0.008340898441182253</v>
       </c>
       <c r="D29">
-        <v>0.01410766863065872</v>
+        <v>0.006791676431233819</v>
       </c>
       <c r="E29">
-        <v>0.05799035242722354</v>
+        <v>-0.007584445119317972</v>
       </c>
       <c r="F29">
-        <v>0.05061434772675961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03089262547774762</v>
+      </c>
+      <c r="G29">
+        <v>0.0368408219716304</v>
+      </c>
+      <c r="H29">
+        <v>0.01394863842296952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08853995206875324</v>
+        <v>-0.06479964674193592</v>
       </c>
       <c r="C30">
-        <v>0.05495516286928465</v>
+        <v>-0.01581990831803697</v>
       </c>
       <c r="D30">
-        <v>0.05466555227837449</v>
+        <v>0.0496933942163951</v>
       </c>
       <c r="E30">
-        <v>0.07555849658473475</v>
+        <v>0.0404193579602808</v>
       </c>
       <c r="F30">
-        <v>0.0700794340787529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07234509802336807</v>
+      </c>
+      <c r="G30">
+        <v>0.06831236389427177</v>
+      </c>
+      <c r="H30">
+        <v>-0.05171126942781342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05906132961770602</v>
+        <v>-0.05207557831286307</v>
       </c>
       <c r="C31">
-        <v>0.01722199616579677</v>
+        <v>-0.02745489532373664</v>
       </c>
       <c r="D31">
-        <v>0.05030005818186147</v>
+        <v>0.01773456254781569</v>
       </c>
       <c r="E31">
-        <v>0.02122594127179238</v>
+        <v>0.0112187402488534</v>
       </c>
       <c r="F31">
-        <v>0.03190311881921987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02132310252823095</v>
+      </c>
+      <c r="G31">
+        <v>0.01777796748747417</v>
+      </c>
+      <c r="H31">
+        <v>0.01323590778873847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02200205959000113</v>
+        <v>-0.00844959690796814</v>
       </c>
       <c r="C32">
-        <v>0.02250088963345375</v>
+        <v>-0.01737852080003558</v>
       </c>
       <c r="D32">
-        <v>0.0203103781619303</v>
+        <v>0.007769881419073047</v>
       </c>
       <c r="E32">
-        <v>0.0904129346104908</v>
+        <v>-0.01784615156768935</v>
       </c>
       <c r="F32">
-        <v>0.07505846459728004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05016327192014267</v>
+      </c>
+      <c r="G32">
+        <v>0.04739814051398662</v>
+      </c>
+      <c r="H32">
+        <v>-0.04501546814396985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05367744554247818</v>
+        <v>-0.04098011002327283</v>
       </c>
       <c r="C33">
-        <v>0.005634155391416973</v>
+        <v>-0.0113287958622938</v>
       </c>
       <c r="D33">
-        <v>0.05677430297934276</v>
+        <v>0.03259901435550627</v>
       </c>
       <c r="E33">
-        <v>0.05759017475253525</v>
+        <v>0.02372737578431225</v>
       </c>
       <c r="F33">
-        <v>0.08415951818022882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01804628374894413</v>
+      </c>
+      <c r="G33">
+        <v>0.0606018768636126</v>
+      </c>
+      <c r="H33">
+        <v>-0.02514985559546786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03314499425509036</v>
+        <v>-0.0259267306982661</v>
       </c>
       <c r="C34">
-        <v>0.01729610095028401</v>
+        <v>-0.02492039961559836</v>
       </c>
       <c r="D34">
-        <v>0.02092998519795591</v>
+        <v>0.02892778844277901</v>
       </c>
       <c r="E34">
-        <v>0.042061078108181</v>
+        <v>-0.004521170932789069</v>
       </c>
       <c r="F34">
-        <v>0.03705565975070946</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02913664374088095</v>
+      </c>
+      <c r="G34">
+        <v>0.02491756146801857</v>
+      </c>
+      <c r="H34">
+        <v>-0.03016748005788079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01332967737211592</v>
+        <v>-0.01849767406843083</v>
       </c>
       <c r="C36">
-        <v>0.007559057742649715</v>
+        <v>0.0009243810018940861</v>
       </c>
       <c r="D36">
-        <v>0.006685831781848245</v>
+        <v>-0.0004847174002224639</v>
       </c>
       <c r="E36">
-        <v>0.02833240466588429</v>
+        <v>-0.003078146927340548</v>
       </c>
       <c r="F36">
-        <v>0.03058948888296967</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.00708895916877823</v>
+      </c>
+      <c r="G36">
+        <v>0.02400491791239013</v>
+      </c>
+      <c r="H36">
+        <v>-0.0001893661572122087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006938807750231406</v>
+        <v>-0.01380491011350478</v>
       </c>
       <c r="C38">
-        <v>0.003954716843679529</v>
+        <v>-0.01880561288529601</v>
       </c>
       <c r="D38">
-        <v>-0.01315907055041255</v>
+        <v>-0.0004278921853052469</v>
       </c>
       <c r="E38">
-        <v>0.004794482866887938</v>
+        <v>-0.006621207474724376</v>
       </c>
       <c r="F38">
-        <v>0.02030353430814356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0136803152795285</v>
+      </c>
+      <c r="G38">
+        <v>0.03058928103239861</v>
+      </c>
+      <c r="H38">
+        <v>-0.02320677826189785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0412919178990769</v>
+        <v>-0.02978811282841019</v>
       </c>
       <c r="C39">
-        <v>0.02249672849872555</v>
+        <v>-0.01270405620299451</v>
       </c>
       <c r="D39">
-        <v>0.03830616545811345</v>
+        <v>0.06515554243978418</v>
       </c>
       <c r="E39">
-        <v>0.03866097436813098</v>
+        <v>0.004387772040379232</v>
       </c>
       <c r="F39">
-        <v>0.03749346942450209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04765112933495975</v>
+      </c>
+      <c r="G39">
+        <v>0.04375519197572082</v>
+      </c>
+      <c r="H39">
+        <v>-0.0536330656339171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03742003954437136</v>
+        <v>-0.03382401460620324</v>
       </c>
       <c r="C40">
-        <v>0.04352877348569756</v>
+        <v>-0.01107776134451672</v>
       </c>
       <c r="D40">
-        <v>0.06492584551261557</v>
+        <v>0.02541493688710802</v>
       </c>
       <c r="E40">
-        <v>0.04789387969277042</v>
+        <v>0.02089672253291493</v>
       </c>
       <c r="F40">
-        <v>0.08299955671184817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04366141758042369</v>
+      </c>
+      <c r="G40">
+        <v>0.04432069402346254</v>
+      </c>
+      <c r="H40">
+        <v>-0.05573392640810969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0003237202261714373</v>
+        <v>-0.007666748292665179</v>
       </c>
       <c r="C41">
-        <v>-0.005355953923330339</v>
+        <v>-0.0001201834007518353</v>
       </c>
       <c r="D41">
-        <v>0.01434504326139318</v>
+        <v>-0.004677778689338891</v>
       </c>
       <c r="E41">
-        <v>0.02410248329884268</v>
+        <v>0.001213467410939403</v>
       </c>
       <c r="F41">
-        <v>0.02510393127664133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0008871003849278648</v>
+      </c>
+      <c r="G41">
+        <v>0.01337422775842169</v>
+      </c>
+      <c r="H41">
+        <v>0.01602142203279858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3656340366005187</v>
+        <v>-0.2429494605111331</v>
       </c>
       <c r="C42">
-        <v>-0.8852796471625161</v>
+        <v>0.04790252264435049</v>
       </c>
       <c r="D42">
-        <v>0.1519934354995845</v>
+        <v>0.5351351751952195</v>
       </c>
       <c r="E42">
-        <v>-0.1687585502273441</v>
+        <v>0.1183399783305853</v>
       </c>
       <c r="F42">
-        <v>-0.009781095280226436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7835176405768892</v>
+      </c>
+      <c r="G42">
+        <v>-0.07469566035800947</v>
+      </c>
+      <c r="H42">
+        <v>-0.02301988555737363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007288453702286574</v>
+        <v>-0.005660766480784598</v>
       </c>
       <c r="C43">
-        <v>-0.001033144409187478</v>
+        <v>0.002303979915205835</v>
       </c>
       <c r="D43">
-        <v>0.02140687096250216</v>
+        <v>-0.006431814735967499</v>
       </c>
       <c r="E43">
-        <v>0.02707060159726822</v>
+        <v>0.005034026284479918</v>
       </c>
       <c r="F43">
-        <v>0.03709634448997389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003849663986049366</v>
+      </c>
+      <c r="G43">
+        <v>0.02070729143412318</v>
+      </c>
+      <c r="H43">
+        <v>0.01069992379232248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02463891758727185</v>
+        <v>-0.01454123013228235</v>
       </c>
       <c r="C44">
-        <v>0.008816442821496927</v>
+        <v>-0.003663545814793005</v>
       </c>
       <c r="D44">
-        <v>0.03798537883370062</v>
+        <v>0.02628544180690251</v>
       </c>
       <c r="E44">
-        <v>0.0584237310763223</v>
+        <v>-0.001454521684969766</v>
       </c>
       <c r="F44">
-        <v>0.1870700320281602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00935246416134026</v>
+      </c>
+      <c r="G44">
+        <v>0.09330229779838026</v>
+      </c>
+      <c r="H44">
+        <v>-0.02486876703829897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01911856974081496</v>
+        <v>-0.02257574696240197</v>
       </c>
       <c r="C46">
-        <v>0.01675598070864882</v>
+        <v>-0.004121815068376733</v>
       </c>
       <c r="D46">
-        <v>0.03252123004066591</v>
+        <v>0.01183276423401812</v>
       </c>
       <c r="E46">
-        <v>0.05321957179379309</v>
+        <v>0.005193332514226629</v>
       </c>
       <c r="F46">
-        <v>0.04735526955724308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.034349350795173</v>
+      </c>
+      <c r="G46">
+        <v>0.04958725211763902</v>
+      </c>
+      <c r="H46">
+        <v>0.01045380901412239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09680171016003726</v>
+        <v>-0.07268267498194433</v>
       </c>
       <c r="C47">
-        <v>0.03440142310068448</v>
+        <v>-0.04928967296449108</v>
       </c>
       <c r="D47">
-        <v>0.0342751481438427</v>
+        <v>0.0214048253361001</v>
       </c>
       <c r="E47">
-        <v>0.04208580192513472</v>
+        <v>0.00821232781626917</v>
       </c>
       <c r="F47">
-        <v>0.0001154609390207777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0330336837919186</v>
+      </c>
+      <c r="G47">
+        <v>-0.0122667537886394</v>
+      </c>
+      <c r="H47">
+        <v>0.02894344465228097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0118770261038406</v>
+        <v>-0.0175632579466183</v>
       </c>
       <c r="C48">
-        <v>0.006758157523587244</v>
+        <v>-0.009718200059059249</v>
       </c>
       <c r="D48">
-        <v>0.02347414183658828</v>
+        <v>0.007395634149565128</v>
       </c>
       <c r="E48">
-        <v>0.04398853407576561</v>
+        <v>0.001211008497968357</v>
       </c>
       <c r="F48">
-        <v>0.04772828180124669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01364877423626926</v>
+      </c>
+      <c r="G48">
+        <v>0.03015707141523611</v>
+      </c>
+      <c r="H48">
+        <v>-0.006169954148408681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08966502874874401</v>
+        <v>-0.06749999908023778</v>
       </c>
       <c r="C50">
-        <v>0.0196515281553395</v>
+        <v>-0.04285287017409239</v>
       </c>
       <c r="D50">
-        <v>0.04694885653533577</v>
+        <v>0.03698271385485873</v>
       </c>
       <c r="E50">
-        <v>0.0442490021706201</v>
+        <v>-0.005486003145283952</v>
       </c>
       <c r="F50">
-        <v>0.01741147762013759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03045850614622619</v>
+      </c>
+      <c r="G50">
+        <v>0.01772459532664237</v>
+      </c>
+      <c r="H50">
+        <v>0.02386769725010071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04703167048487095</v>
+        <v>-0.02829096105226774</v>
       </c>
       <c r="C51">
-        <v>-0.001086344782207651</v>
+        <v>-0.007157433186853713</v>
       </c>
       <c r="D51">
-        <v>0.05099469048686409</v>
+        <v>-0.001702455409199471</v>
       </c>
       <c r="E51">
-        <v>0.01253704681473071</v>
+        <v>0.01436174100014995</v>
       </c>
       <c r="F51">
-        <v>0.1634303976898055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01416833836770417</v>
+      </c>
+      <c r="G51">
+        <v>0.09262820816135879</v>
+      </c>
+      <c r="H51">
+        <v>-0.03350838271634864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1096898988652134</v>
+        <v>-0.09492871498421995</v>
       </c>
       <c r="C53">
-        <v>0.03964650897982556</v>
+        <v>-0.06345292308912025</v>
       </c>
       <c r="D53">
-        <v>0.05937152621392915</v>
+        <v>0.04983859802380275</v>
       </c>
       <c r="E53">
-        <v>0.05496859056833949</v>
+        <v>0.007678148065773474</v>
       </c>
       <c r="F53">
-        <v>-0.0667583541318114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05988727831891159</v>
+      </c>
+      <c r="G53">
+        <v>-0.06055213501486983</v>
+      </c>
+      <c r="H53">
+        <v>0.03676391538105518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02495102941971042</v>
+        <v>-0.02250135924910548</v>
       </c>
       <c r="C54">
-        <v>0.03729052847707253</v>
+        <v>-0.01868136471131815</v>
       </c>
       <c r="D54">
-        <v>0.01372265534663827</v>
+        <v>-0.02166303118937039</v>
       </c>
       <c r="E54">
-        <v>0.0356617808347365</v>
+        <v>-0.002237725215507901</v>
       </c>
       <c r="F54">
-        <v>0.07201048593036492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01718132497768919</v>
+      </c>
+      <c r="G54">
+        <v>0.04775729618507661</v>
+      </c>
+      <c r="H54">
+        <v>0.01960275679652191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.105556368070475</v>
+        <v>-0.08239165436809058</v>
       </c>
       <c r="C55">
-        <v>0.02607024180627893</v>
+        <v>-0.05543737278264056</v>
       </c>
       <c r="D55">
-        <v>0.008886895209873472</v>
+        <v>0.04541846945904453</v>
       </c>
       <c r="E55">
-        <v>0.05190836323317397</v>
+        <v>-0.005199990286712096</v>
       </c>
       <c r="F55">
-        <v>-0.05843794908323938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04518606624003701</v>
+      </c>
+      <c r="G55">
+        <v>-0.03913185527982233</v>
+      </c>
+      <c r="H55">
+        <v>0.05203604791213338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1466393417776213</v>
+        <v>-0.1230354708150839</v>
       </c>
       <c r="C56">
-        <v>0.07072262589439221</v>
+        <v>-0.0894487188935755</v>
       </c>
       <c r="D56">
-        <v>0.03609891609967372</v>
+        <v>0.05813993552717366</v>
       </c>
       <c r="E56">
-        <v>0.0643699918582326</v>
+        <v>0.002211936345861663</v>
       </c>
       <c r="F56">
-        <v>-0.1626031215090686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08297732242567234</v>
+      </c>
+      <c r="G56">
+        <v>-0.1041772384339285</v>
+      </c>
+      <c r="H56">
+        <v>0.02908952073333629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0460803484433023</v>
+        <v>-0.04410027445740412</v>
       </c>
       <c r="C57">
-        <v>0.02096255980215595</v>
+        <v>-0.00113927988759078</v>
       </c>
       <c r="D57">
-        <v>0.04002937785626605</v>
+        <v>0.02499192352298028</v>
       </c>
       <c r="E57">
-        <v>0.02660234184006019</v>
+        <v>0.01384704039695372</v>
       </c>
       <c r="F57">
-        <v>0.07881770821303839</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02976800972479611</v>
+      </c>
+      <c r="G57">
+        <v>0.06806802597322759</v>
+      </c>
+      <c r="H57">
+        <v>-0.01848051365562082</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2186536082119999</v>
+        <v>-0.160885533488735</v>
       </c>
       <c r="C58">
-        <v>0.06535520747937477</v>
+        <v>-0.0894069137472296</v>
       </c>
       <c r="D58">
-        <v>0.1346210452214807</v>
+        <v>0.1184303642572132</v>
       </c>
       <c r="E58">
-        <v>0.1253947012985304</v>
+        <v>0.1274267836154482</v>
       </c>
       <c r="F58">
-        <v>0.2702140390913182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05781021118947616</v>
+      </c>
+      <c r="G58">
+        <v>0.6612062372675453</v>
+      </c>
+      <c r="H58">
+        <v>0.550388296321307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06765627813690198</v>
+        <v>-0.1066144038241759</v>
       </c>
       <c r="C59">
-        <v>0.0866958590533639</v>
+        <v>-0.04916798918962025</v>
       </c>
       <c r="D59">
-        <v>-0.07092616896543695</v>
+        <v>-0.2227610539229484</v>
       </c>
       <c r="E59">
-        <v>-0.1420439213857386</v>
+        <v>0.03121989155319401</v>
       </c>
       <c r="F59">
-        <v>0.05418960009094274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08504404086945427</v>
+      </c>
+      <c r="G59">
+        <v>0.03074058846944235</v>
+      </c>
+      <c r="H59">
+        <v>-0.02473462685179432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1662260431264976</v>
+        <v>-0.1634078610882604</v>
       </c>
       <c r="C60">
-        <v>0.07599732737882044</v>
+        <v>-0.07727008424288889</v>
       </c>
       <c r="D60">
-        <v>0.04929912858928577</v>
+        <v>-0.01018620817151138</v>
       </c>
       <c r="E60">
-        <v>-0.02656429112053063</v>
+        <v>0.05695726533869439</v>
       </c>
       <c r="F60">
-        <v>0.08667820546166939</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05959365626751192</v>
+      </c>
+      <c r="G60">
+        <v>0.1089291767438721</v>
+      </c>
+      <c r="H60">
+        <v>-0.3559162142448223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02250211207327898</v>
+        <v>-0.02465094309060239</v>
       </c>
       <c r="C61">
-        <v>0.01124106929688712</v>
+        <v>-0.01454928885732382</v>
       </c>
       <c r="D61">
-        <v>0.01312265491369316</v>
+        <v>0.03617276787760335</v>
       </c>
       <c r="E61">
-        <v>0.03059829777689707</v>
+        <v>-0.00148915192669019</v>
       </c>
       <c r="F61">
-        <v>0.03405800200229311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03399299739616338</v>
+      </c>
+      <c r="G61">
+        <v>0.02852957367397404</v>
+      </c>
+      <c r="H61">
+        <v>-0.03945588444033618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02192218478908167</v>
+        <v>-0.01688816579844441</v>
       </c>
       <c r="C63">
-        <v>0.01854024968765068</v>
+        <v>-0.003904987481989167</v>
       </c>
       <c r="D63">
-        <v>0.02837149995945747</v>
+        <v>0.01172276215164518</v>
       </c>
       <c r="E63">
-        <v>0.04743717836506165</v>
+        <v>-5.106936601880606e-05</v>
       </c>
       <c r="F63">
-        <v>0.02355338234985828</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02606733785930934</v>
+      </c>
+      <c r="G63">
+        <v>0.02277912901736735</v>
+      </c>
+      <c r="H63">
+        <v>0.005140738912604885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05154617758129821</v>
+        <v>-0.04739086060229121</v>
       </c>
       <c r="C64">
-        <v>0.0171165462732319</v>
+        <v>-0.02524474734793622</v>
       </c>
       <c r="D64">
-        <v>0.01840103889046446</v>
+        <v>0.04286498338324449</v>
       </c>
       <c r="E64">
-        <v>0.08645574065127763</v>
+        <v>-0.008229269606096389</v>
       </c>
       <c r="F64">
-        <v>0.0422128502886045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03449405655477104</v>
+      </c>
+      <c r="G64">
+        <v>0.01862997115351123</v>
+      </c>
+      <c r="H64">
+        <v>-0.03404106595598536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.008630164171873933</v>
+        <v>-0.0365971315338841</v>
       </c>
       <c r="C65">
-        <v>7.632305516893886e-05</v>
+        <v>-0.005673885007171549</v>
       </c>
       <c r="D65">
-        <v>0.007735596882860267</v>
+        <v>0.03330707005730095</v>
       </c>
       <c r="E65">
-        <v>-0.00133744411840186</v>
+        <v>-0.003984660680132279</v>
       </c>
       <c r="F65">
-        <v>0.005604798478560942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03149102010306832</v>
+      </c>
+      <c r="G65">
+        <v>-0.006026863688862931</v>
+      </c>
+      <c r="H65">
+        <v>-0.06041894542285334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04662459529732564</v>
+        <v>-0.03808874210847638</v>
       </c>
       <c r="C66">
-        <v>0.03002978791092873</v>
+        <v>-0.02129313779364901</v>
       </c>
       <c r="D66">
-        <v>0.04054387900950522</v>
+        <v>0.07486208769405761</v>
       </c>
       <c r="E66">
-        <v>0.05775317299762457</v>
+        <v>0.011706849874926</v>
       </c>
       <c r="F66">
-        <v>0.04036331359778193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0700630343174628</v>
+      </c>
+      <c r="G66">
+        <v>0.03909593037169823</v>
+      </c>
+      <c r="H66">
+        <v>-0.06619063239050296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02762899543224754</v>
+        <v>-0.03273312247189412</v>
       </c>
       <c r="C67">
-        <v>0.01238691058396951</v>
+        <v>-0.02602275707351614</v>
       </c>
       <c r="D67">
-        <v>-0.01746592065208916</v>
+        <v>-0.009852970415740724</v>
       </c>
       <c r="E67">
-        <v>-0.0157177270757979</v>
+        <v>-0.001671536159735902</v>
       </c>
       <c r="F67">
-        <v>0.03022721284395271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01424921485690088</v>
+      </c>
+      <c r="G67">
+        <v>0.02106362622766217</v>
+      </c>
+      <c r="H67">
+        <v>-0.03582390403676423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07479751257080164</v>
+        <v>-0.1086034170176432</v>
       </c>
       <c r="C68">
-        <v>0.07066198221378658</v>
+        <v>-0.02606466277833119</v>
       </c>
       <c r="D68">
-        <v>-0.1040526495245563</v>
+        <v>-0.2170821395180118</v>
       </c>
       <c r="E68">
-        <v>-0.1956757098936713</v>
+        <v>0.02658787986006484</v>
       </c>
       <c r="F68">
-        <v>0.03273175984899777</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1090235994124605</v>
+      </c>
+      <c r="G68">
+        <v>0.02559334424517546</v>
+      </c>
+      <c r="H68">
+        <v>0.04620168440480936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07330781929558523</v>
+        <v>-0.05710181175154722</v>
       </c>
       <c r="C69">
-        <v>0.03604140990572714</v>
+        <v>-0.04368326915109855</v>
       </c>
       <c r="D69">
-        <v>0.02480207804558779</v>
+        <v>0.01591781562610373</v>
       </c>
       <c r="E69">
-        <v>0.004250084665143586</v>
+        <v>0.008412831562063084</v>
       </c>
       <c r="F69">
-        <v>0.01614855447538175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02859556048425083</v>
+      </c>
+      <c r="G69">
+        <v>-0.002030273015606522</v>
+      </c>
+      <c r="H69">
+        <v>0.008695903560463548</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08885435372838532</v>
+        <v>-0.1053149030355161</v>
       </c>
       <c r="C71">
-        <v>0.07065046079982756</v>
+        <v>-0.03537642474797768</v>
       </c>
       <c r="D71">
-        <v>-0.08364953735048089</v>
+        <v>-0.202922957533437</v>
       </c>
       <c r="E71">
-        <v>-0.2316704786397085</v>
+        <v>0.0300992149784521</v>
       </c>
       <c r="F71">
-        <v>0.06218863471723941</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1173452823366776</v>
+      </c>
+      <c r="G71">
+        <v>0.02996485485891012</v>
+      </c>
+      <c r="H71">
+        <v>0.01872318421662461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1092582421213784</v>
+        <v>-0.08787860854563606</v>
       </c>
       <c r="C72">
-        <v>0.1144225971787667</v>
+        <v>-0.06879273918153266</v>
       </c>
       <c r="D72">
-        <v>0.02837899131575283</v>
+        <v>0.04954266591082557</v>
       </c>
       <c r="E72">
-        <v>0.05929002063328036</v>
+        <v>0.01379743511165393</v>
       </c>
       <c r="F72">
-        <v>0.04296598675271814</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1179537081851137</v>
+      </c>
+      <c r="G72">
+        <v>0.07013334375785302</v>
+      </c>
+      <c r="H72">
+        <v>-0.1462875599102436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2378240583747311</v>
+        <v>-0.2273327023490395</v>
       </c>
       <c r="C73">
-        <v>0.1065363639116997</v>
+        <v>-0.1017390600381099</v>
       </c>
       <c r="D73">
-        <v>0.02482506950064762</v>
+        <v>0.005272749164645701</v>
       </c>
       <c r="E73">
-        <v>-0.08712833432902092</v>
+        <v>0.09041348361434495</v>
       </c>
       <c r="F73">
-        <v>0.1702814871485381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06214475505571222</v>
+      </c>
+      <c r="G73">
+        <v>0.1540284012810139</v>
+      </c>
+      <c r="H73">
+        <v>-0.5103421078380842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1242251694555826</v>
+        <v>-0.1094260124980524</v>
       </c>
       <c r="C74">
-        <v>0.03677043326799025</v>
+        <v>-0.07873442433953896</v>
       </c>
       <c r="D74">
-        <v>0.03401548134891148</v>
+        <v>0.05393267387991241</v>
       </c>
       <c r="E74">
-        <v>0.03282379785906701</v>
+        <v>0.009120276619852477</v>
       </c>
       <c r="F74">
-        <v>-0.113968864679596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06508464096998159</v>
+      </c>
+      <c r="G74">
+        <v>-0.08888177623046832</v>
+      </c>
+      <c r="H74">
+        <v>0.002317026395010274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2241943023034955</v>
+        <v>-0.2154678178053763</v>
       </c>
       <c r="C75">
-        <v>0.1072268920933191</v>
+        <v>-0.1565470402927677</v>
       </c>
       <c r="D75">
-        <v>0.07332732327273982</v>
+        <v>0.06199803246728063</v>
       </c>
       <c r="E75">
-        <v>0.0450844921468317</v>
+        <v>0.03525997837725541</v>
       </c>
       <c r="F75">
-        <v>-0.1751364482334855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1239790244485756</v>
+      </c>
+      <c r="G75">
+        <v>-0.1629521130466459</v>
+      </c>
+      <c r="H75">
+        <v>0.09215574900001292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2663592860524963</v>
+        <v>-0.2087521054348111</v>
       </c>
       <c r="C76">
-        <v>0.1248234838304342</v>
+        <v>-0.1561680312769319</v>
       </c>
       <c r="D76">
-        <v>0.01672456692225885</v>
+        <v>0.06666769757437822</v>
       </c>
       <c r="E76">
-        <v>0.05896686373755906</v>
+        <v>-0.00709221073844231</v>
       </c>
       <c r="F76">
-        <v>-0.2106064754947464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1350661774302389</v>
+      </c>
+      <c r="G76">
+        <v>-0.1818472115504152</v>
+      </c>
+      <c r="H76">
+        <v>0.1047066220088209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1425331001517965</v>
+        <v>-0.08156105226653107</v>
       </c>
       <c r="C77">
-        <v>-0.01456898788145373</v>
+        <v>-0.03156489496923779</v>
       </c>
       <c r="D77">
-        <v>0.07211750784355894</v>
+        <v>0.07337004542300879</v>
       </c>
       <c r="E77">
-        <v>0.0604881768212736</v>
+        <v>0.01544523598090367</v>
       </c>
       <c r="F77">
-        <v>0.2113865884729401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.002907755934055466</v>
+      </c>
+      <c r="G77">
+        <v>0.1320533429117204</v>
+      </c>
+      <c r="H77">
+        <v>0.04637398174859027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05637773567343356</v>
+        <v>-0.03983402010577986</v>
       </c>
       <c r="C78">
-        <v>0.01092567958137575</v>
+        <v>-0.02195029728647276</v>
       </c>
       <c r="D78">
-        <v>0.04490301815891788</v>
+        <v>0.05381644681590553</v>
       </c>
       <c r="E78">
-        <v>0.08771544253669583</v>
+        <v>-0.00232542630998432</v>
       </c>
       <c r="F78">
-        <v>0.03044495541646053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04570001451469007</v>
+      </c>
+      <c r="G78">
+        <v>0.0473509289171395</v>
+      </c>
+      <c r="H78">
+        <v>-0.03610192126557444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1935932829191351</v>
+        <v>-0.1725179278360693</v>
       </c>
       <c r="C80">
-        <v>-0.1585961577734974</v>
+        <v>-0.09211861915916576</v>
       </c>
       <c r="D80">
-        <v>-0.8511068702107419</v>
+        <v>0.0169524496498023</v>
       </c>
       <c r="E80">
-        <v>0.4336852749220669</v>
+        <v>-0.9606583470187332</v>
       </c>
       <c r="F80">
-        <v>0.04326621932300798</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1029198636968209</v>
+      </c>
+      <c r="G80">
+        <v>0.1026348653129615</v>
+      </c>
+      <c r="H80">
+        <v>-0.008618480249064886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1574158298901362</v>
+        <v>-0.1461590529693833</v>
       </c>
       <c r="C81">
-        <v>0.09464497872622341</v>
+        <v>-0.1065674823097472</v>
       </c>
       <c r="D81">
-        <v>0.03102430266573171</v>
+        <v>0.04000985873310512</v>
       </c>
       <c r="E81">
-        <v>0.04248499050574998</v>
+        <v>0.008735009240350413</v>
       </c>
       <c r="F81">
-        <v>-0.196404159686291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09317376982306944</v>
+      </c>
+      <c r="G81">
+        <v>-0.1213558087134557</v>
+      </c>
+      <c r="H81">
+        <v>0.08054523749072952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05627126718799714</v>
+        <v>-0.0407454740309111</v>
       </c>
       <c r="C83">
-        <v>-0.009961985228597767</v>
+        <v>-0.01842163128370037</v>
       </c>
       <c r="D83">
-        <v>0.04922480220993545</v>
+        <v>0.0269264180462936</v>
       </c>
       <c r="E83">
-        <v>0.0398951987025208</v>
+        <v>0.01442228038527367</v>
       </c>
       <c r="F83">
-        <v>0.07879561793332808</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01425903739355085</v>
+      </c>
+      <c r="G83">
+        <v>0.05810788360606827</v>
+      </c>
+      <c r="H83">
+        <v>-0.02354505120717209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2375496410207588</v>
+        <v>-0.2095759680539541</v>
       </c>
       <c r="C85">
-        <v>0.08655662369262936</v>
+        <v>-0.1387216878427436</v>
       </c>
       <c r="D85">
-        <v>0.04224432574451389</v>
+        <v>0.0846091884497753</v>
       </c>
       <c r="E85">
-        <v>0.03907000376149106</v>
+        <v>0.02308503989788269</v>
       </c>
       <c r="F85">
-        <v>-0.1969025996475368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1168318077794904</v>
+      </c>
+      <c r="G85">
+        <v>-0.1695047970276661</v>
+      </c>
+      <c r="H85">
+        <v>0.06622675406925904</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004321120944559761</v>
+        <v>-0.009412333758367633</v>
       </c>
       <c r="C86">
-        <v>3.558194146879179e-05</v>
+        <v>0.0004688168237904664</v>
       </c>
       <c r="D86">
-        <v>0.02750366998242484</v>
+        <v>0.0202196998185987</v>
       </c>
       <c r="E86">
-        <v>0.08162728849109242</v>
+        <v>0.006097903848384576</v>
       </c>
       <c r="F86">
-        <v>0.08538804008612172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01821035278696358</v>
+      </c>
+      <c r="G86">
+        <v>0.08447824139901917</v>
+      </c>
+      <c r="H86">
+        <v>-0.04831031923627895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0251548331517631</v>
+        <v>-0.02796714811486451</v>
       </c>
       <c r="C87">
-        <v>0.02031273877249927</v>
+        <v>-0.009520649112475278</v>
       </c>
       <c r="D87">
-        <v>-0.00322641018023946</v>
+        <v>0.01539536884129713</v>
       </c>
       <c r="E87">
-        <v>0.0002260416179785137</v>
+        <v>0.001284274180208528</v>
       </c>
       <c r="F87">
-        <v>0.07864915482916882</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01525670734349019</v>
+      </c>
+      <c r="G87">
+        <v>0.08579552877318117</v>
+      </c>
+      <c r="H87">
+        <v>-0.03158761658866571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01135123763909669</v>
+        <v>-0.03869195554421345</v>
       </c>
       <c r="C88">
-        <v>0.01907321433981008</v>
+        <v>0.001959342460198108</v>
       </c>
       <c r="D88">
-        <v>-0.01660109450064548</v>
+        <v>-0.01136825605956064</v>
       </c>
       <c r="E88">
-        <v>0.006770172690882334</v>
+        <v>-0.005589846410415157</v>
       </c>
       <c r="F88">
-        <v>0.04176916687126174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0153469625007084</v>
+      </c>
+      <c r="G88">
+        <v>0.002169690928082264</v>
+      </c>
+      <c r="H88">
+        <v>-0.01681557612815888</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1041586764904885</v>
+        <v>-0.1674731617045667</v>
       </c>
       <c r="C89">
-        <v>0.08894564165783027</v>
+        <v>-0.05191797733631993</v>
       </c>
       <c r="D89">
-        <v>-0.105393737144615</v>
+        <v>-0.3445502525683046</v>
       </c>
       <c r="E89">
-        <v>-0.2924259850103191</v>
+        <v>0.06563040308650184</v>
       </c>
       <c r="F89">
-        <v>0.1184192915886789</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1650075561179322</v>
+      </c>
+      <c r="G89">
+        <v>0.0239544763817971</v>
+      </c>
+      <c r="H89">
+        <v>0.01872781066688142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09841249792976037</v>
+        <v>-0.1297260823686121</v>
       </c>
       <c r="C90">
-        <v>0.08405632783825287</v>
+        <v>-0.03939016180618773</v>
       </c>
       <c r="D90">
-        <v>-0.151891291399634</v>
+        <v>-0.2976668443178256</v>
       </c>
       <c r="E90">
-        <v>-0.251867018324782</v>
+        <v>0.03648336050469323</v>
       </c>
       <c r="F90">
-        <v>0.07070553610535717</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1550359703640166</v>
+      </c>
+      <c r="G90">
+        <v>-0.01492742280144341</v>
+      </c>
+      <c r="H90">
+        <v>0.04159964428667513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2904845198798878</v>
+        <v>-0.229241875124912</v>
       </c>
       <c r="C91">
-        <v>0.09100871098090009</v>
+        <v>-0.1633186423286269</v>
       </c>
       <c r="D91">
-        <v>0.05472769232354194</v>
+        <v>0.0744760614160969</v>
       </c>
       <c r="E91">
-        <v>0.001909011644471152</v>
+        <v>0.02930388760019942</v>
       </c>
       <c r="F91">
-        <v>-0.247467962034588</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.115450963861392</v>
+      </c>
+      <c r="G91">
+        <v>-0.222057980133867</v>
+      </c>
+      <c r="H91">
+        <v>0.1244059317432258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1634573790085637</v>
+        <v>-0.1889097232437164</v>
       </c>
       <c r="C92">
-        <v>0.08104656037589414</v>
+        <v>-0.1246402406744358</v>
       </c>
       <c r="D92">
-        <v>-0.1945557963452376</v>
+        <v>-0.2712753432293348</v>
       </c>
       <c r="E92">
-        <v>-0.350945946855912</v>
+        <v>0.02680709707665348</v>
       </c>
       <c r="F92">
-        <v>0.1160496690510307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1357897951007847</v>
+      </c>
+      <c r="G92">
+        <v>-0.0235486253522049</v>
+      </c>
+      <c r="H92">
+        <v>0.1331696088466109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1050149761800663</v>
+        <v>-0.1500340531924153</v>
       </c>
       <c r="C93">
-        <v>0.06870386797935628</v>
+        <v>-0.05275244324159489</v>
       </c>
       <c r="D93">
-        <v>-0.1819990284307842</v>
+        <v>-0.3277778221257676</v>
       </c>
       <c r="E93">
-        <v>-0.3594735994143951</v>
+        <v>0.05396421424133938</v>
       </c>
       <c r="F93">
-        <v>0.04418955712967372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1991277674174796</v>
+      </c>
+      <c r="G93">
+        <v>-0.01948681420744029</v>
+      </c>
+      <c r="H93">
+        <v>-0.01583475875340877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2601338576521462</v>
+        <v>-0.2471971006727083</v>
       </c>
       <c r="C94">
-        <v>0.1205987014593829</v>
+        <v>-0.1544548425878704</v>
       </c>
       <c r="D94">
-        <v>0.01955287370179144</v>
+        <v>0.04840508923776692</v>
       </c>
       <c r="E94">
-        <v>0.02784556770171293</v>
+        <v>0.04149680626160937</v>
       </c>
       <c r="F94">
-        <v>-0.3145211141257934</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1294169408415305</v>
+      </c>
+      <c r="G94">
+        <v>-0.2419056998119052</v>
+      </c>
+      <c r="H94">
+        <v>0.132516295217556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1075319925068041</v>
+        <v>-0.07343487981034738</v>
       </c>
       <c r="C95">
-        <v>0.01334767596588668</v>
+        <v>-0.05569848898338775</v>
       </c>
       <c r="D95">
-        <v>0.1054129269458425</v>
+        <v>0.0792051791575996</v>
       </c>
       <c r="E95">
-        <v>0.08731710581874855</v>
+        <v>0.07860253715347447</v>
       </c>
       <c r="F95">
-        <v>0.07054789439144191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03250520245897172</v>
+      </c>
+      <c r="G95">
+        <v>0.07724638438910479</v>
+      </c>
+      <c r="H95">
+        <v>-0.01625853710143104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1823264870307828</v>
+        <v>-0.1652437449680208</v>
       </c>
       <c r="C98">
-        <v>0.05103521883307276</v>
+        <v>-0.1073804777565252</v>
       </c>
       <c r="D98">
-        <v>0.02412997565302716</v>
+        <v>0.008027410681792763</v>
       </c>
       <c r="E98">
-        <v>-0.08569816637809621</v>
+        <v>0.06316884383174423</v>
       </c>
       <c r="F98">
-        <v>0.0690026614387033</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01939125291689647</v>
+      </c>
+      <c r="G98">
+        <v>0.1336698274949745</v>
+      </c>
+      <c r="H98">
+        <v>-0.361750856982714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009122843080233074</v>
+        <v>-0.01607252652955095</v>
       </c>
       <c r="C101">
-        <v>0.02565676721382809</v>
+        <v>-0.00504590796687362</v>
       </c>
       <c r="D101">
-        <v>0.03877075924912077</v>
+        <v>0.01001900366291428</v>
       </c>
       <c r="E101">
-        <v>0.1022739856260317</v>
+        <v>-0.00286432422482329</v>
       </c>
       <c r="F101">
-        <v>0.1597626325463301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0398829753787633</v>
+      </c>
+      <c r="G101">
+        <v>0.09770639797224674</v>
+      </c>
+      <c r="H101">
+        <v>0.06588957655303788</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1047274429520949</v>
+        <v>-0.1091869210667853</v>
       </c>
       <c r="C102">
-        <v>0.02790489637347312</v>
+        <v>-0.06452910179650952</v>
       </c>
       <c r="D102">
-        <v>0.03147729745174193</v>
+        <v>0.04815657054570528</v>
       </c>
       <c r="E102">
-        <v>0.0727998200235413</v>
+        <v>0.005455075463517287</v>
       </c>
       <c r="F102">
-        <v>-0.132825555529798</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06568203844307474</v>
+      </c>
+      <c r="G102">
+        <v>-0.1011339931536816</v>
+      </c>
+      <c r="H102">
+        <v>0.06430570242092663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02682663459905141</v>
+        <v>-0.02262078234297601</v>
       </c>
       <c r="C103">
-        <v>0.008512866029394632</v>
+        <v>-0.01444713292868371</v>
       </c>
       <c r="D103">
-        <v>0.009136449847840223</v>
+        <v>0.0116199258684104</v>
       </c>
       <c r="E103">
-        <v>0.009579915982889171</v>
+        <v>-0.006297576378990631</v>
       </c>
       <c r="F103">
-        <v>-0.0266167944266688</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01558886124415898</v>
+      </c>
+      <c r="G103">
+        <v>-0.01054901605179089</v>
+      </c>
+      <c r="H103">
+        <v>0.008553914311913973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4642653986001199</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8619550823052504</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0358217570886511</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02156924023248634</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1671298813399491</v>
+      </c>
+      <c r="G104">
+        <v>-0.04299875391818126</v>
+      </c>
+      <c r="H104">
+        <v>0.03500517516089728</v>
       </c>
     </row>
   </sheetData>
